--- a/app/data/outroslinks.xlsx
+++ b/app/data/outroslinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\@UFRJ\observatorio\paineldedados\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06C7146-5134-4F3A-9FB5-BEC09ED01C5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{851506F1-7339-4719-9F44-D4781C86CE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,9 +393,6 @@
     <t>https://www.ibge.gov.br/cidades-e-estados/rj/.html?</t>
   </si>
   <si>
-    <t>ibge1,png,ibge2.png</t>
-  </si>
-  <si>
     <t>Analise Geral:
    Receita - Corrente, de Capital, Corrente Itra Orçamentário Capital IntraOrçamentario, Deduções, e outras
     Despesas - Corrente, Per Capita, e outras
@@ -571,9 +568,6 @@
     <t>http://comexstat.mdic.gov.br/pt/municipio</t>
   </si>
   <si>
-    <t>ComercioExterior2.png.ComercioExterior3.png</t>
-  </si>
-  <si>
     <t>Consultas de exportação e importação com dados de 1997 ao ano atual, detalhados mês a mês ou agregados por ano. Utilize os filtros para restringir sua consulta e os detalhamentos para escolher quais colunas serão exibidas. Veja os resultados em tela e faça download em formato de planilha e dados brutos.</t>
   </si>
   <si>
@@ -726,9 +720,6 @@
     <t>PlataformaBrasil.png</t>
   </si>
   <si>
-    <t>Painal INFOSANBAS</t>
-  </si>
-  <si>
     <t>https://infosanbas.org.br/</t>
   </si>
   <si>
@@ -775,9 +766,6 @@
   </si>
   <si>
     <t>Portais de Dados de Saúde</t>
-  </si>
-  <si>
-    <t>Saude1.ng,Saude2.png</t>
   </si>
   <si>
     <t>e-Gestor  Informação e Gestão da Atenção Basica - https://egestorab.saude.gov.br/
@@ -852,12 +840,24 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>Saude1.png,Saude2.png</t>
+  </si>
+  <si>
+    <t>ibge1.png,ibge2.png</t>
+  </si>
+  <si>
+    <t>ComercioExterior2.png,ComercioExterior3.png</t>
+  </si>
+  <si>
+    <t>Painel INFOSANBAS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -894,6 +894,12 @@
       <sz val="11"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -927,7 +933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -950,6 +956,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1165,10 +1174,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X1000"/>
+  <dimension ref="A1:X999"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1197,16 +1206,16 @@
     </row>
     <row r="2" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -1230,17 +1239,17 @@
       <c r="X2" s="2"/>
     </row>
     <row r="3" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>96</v>
+      <c r="A3" s="7" t="s">
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>99</v>
+        <v>28</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -1264,17 +1273,17 @@
       <c r="X3" s="2"/>
     </row>
     <row r="4" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>46</v>
+      <c r="A4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -1298,17 +1307,17 @@
       <c r="X4" s="2"/>
     </row>
     <row r="5" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>165</v>
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
@@ -1332,17 +1341,17 @@
       <c r="X5" s="2"/>
     </row>
     <row r="6" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>116</v>
+      <c r="A6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>125</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1366,17 +1375,17 @@
       <c r="X6" s="2"/>
     </row>
     <row r="7" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>130</v>
+      <c r="A7" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>133</v>
+        <v>36</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1401,16 +1410,16 @@
     </row>
     <row r="8" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>161</v>
+        <v>132</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>134</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -1435,16 +1444,16 @@
     </row>
     <row r="9" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>81</v>
+        <v>108</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1469,16 +1478,16 @@
     </row>
     <row r="10" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>168</v>
+        <v>59</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -1503,16 +1512,16 @@
     </row>
     <row r="11" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>146</v>
+        <v>47</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>146</v>
+        <v>48</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>50</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1537,16 +1546,16 @@
     </row>
     <row r="12" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>91</v>
+        <v>70</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>72</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1570,17 +1579,17 @@
       <c r="X12" s="2"/>
     </row>
     <row r="13" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>159</v>
+      <c r="A13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>22</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1605,16 +1614,16 @@
     </row>
     <row r="14" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="10" t="s">
-        <v>95</v>
+        <v>9</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>11</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1638,17 +1647,17 @@
       <c r="X14" s="2"/>
     </row>
     <row r="15" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>136</v>
+      <c r="A15" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -1672,17 +1681,17 @@
       <c r="X15" s="2"/>
     </row>
     <row r="16" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>153</v>
+      <c r="A16" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>156</v>
+        <v>52</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -1706,17 +1715,17 @@
       <c r="X16" s="2"/>
     </row>
     <row r="17" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>64</v>
+      <c r="A17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -1741,16 +1750,16 @@
     </row>
     <row r="18" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>56</v>
+        <v>4</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>57</v>
+        <v>6</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1775,16 +1784,16 @@
     </row>
     <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>151</v>
+        <v>12</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>152</v>
+        <v>15</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1808,410 +1817,410 @@
       <c r="X19" s="2"/>
     </row>
     <row r="20" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>23</v>
+      <c r="A20" s="7" t="s">
+        <v>31</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
+        <v>34</v>
+      </c>
     </row>
     <row r="21" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C22" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D22" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>12</v>
+    <row r="23" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>165</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>4</v>
+      <c r="A24" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>7</v>
+        <v>165</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>51</v>
+      <c r="A25" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>9</v>
+        <v>67</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>11</v>
+        <v>63</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B28" s="13" t="s">
-        <v>77</v>
+      <c r="A28" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>47</v>
+        <v>87</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>50</v>
+        <v>88</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>84</v>
+      <c r="A30" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>86</v>
+        <v>152</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>87</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>126</v>
+      <c r="A31" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C31" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="B43" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="32" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="C43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B44" s="5" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D43" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>65</v>
+      <c r="C44" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+    </row>
+    <row r="47" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -7923,19 +7932,13 @@
       <c r="C999" s="2"/>
       <c r="D999" s="2"/>
     </row>
-    <row r="1000" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="1"/>
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-      <c r="D1000" s="2"/>
-    </row>
   </sheetData>
   <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D46">
-      <sortCondition descending="1" ref="C1"/>
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/app/data/outroslinks.xlsx
+++ b/app/data/outroslinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\@UFRJ\observatorio\paineldedados\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DD9FD01-E7BA-49D8-896E-B20060825469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A09D5C-5DDF-4361-8F38-2569A5B41C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -305,9 +305,6 @@
     <t>http://portalods.com.br/wp-content/uploads/2018/01/indice-de-vulnerabilidade-juvenil-a-violencia-2017.pdf</t>
   </si>
   <si>
-    <t>IVS juventude.png</t>
-  </si>
-  <si>
     <t>O Índice de Vulnerabilidade Juvenil à Violência 2017 (IVJ 2017) é um indicador, desenvolvido pela Secretaria Nacional de Juventude em parceria com o Fórum Brasileiro de Segurança Pública, que agrega dados relativos às dimensões consideradas chave na determinação da vulnerabilidade dos jovens à violência, tais como taxa de frequência à escola, escolaridade, inserção no mercado de trabalho, taxa de mortalidade por homicídios e por acidentes de trânsito. Ele serve como norteador das políticas públicas de juventude, parcela da população mais afetada pela violência no Brasil. (Não possui base de Dados calculada para os municípios do RJ)</t>
   </si>
   <si>
@@ -705,9 +702,6 @@
   </si>
   <si>
     <t>Diversos</t>
-  </si>
-  <si>
-    <t>diversos.png</t>
   </si>
   <si>
     <t>Unidades de Conservação no Brasil
@@ -824,6 +818,12 @@
   </si>
   <si>
     <t>Saude1.png,Saude2.png</t>
+  </si>
+  <si>
+    <t>diversos.jpg</t>
+  </si>
+  <si>
+    <t>IVS_juventude.png</t>
   </si>
 </sst>
 </file>
@@ -1173,8 +1173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X995"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1684,10 +1684,10 @@
         <v>59</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>60</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
@@ -1712,422 +1712,422 @@
     </row>
     <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="D17" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="15" t="s">
-        <v>66</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="D19" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>73</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>77</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="D22" s="14" t="s">
         <v>81</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="D23" s="6" t="s">
         <v>85</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="D24" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="D25" s="6" t="s">
         <v>93</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C26" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>96</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>175</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="C28" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>104</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="D29" s="6" t="s">
         <v>108</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="D30" s="6" t="s">
         <v>112</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>116</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B32" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="D32" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="C33" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="D34" s="6" t="s">
         <v>128</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="D35" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B36" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="6" t="s">
-        <v>136</v>
-      </c>
       <c r="D36" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>139</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="C38" s="6" t="s">
+      <c r="D38" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B40" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="D42" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>157</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="D43" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="D44" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="D45" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="D46" s="5" t="s">
         <v>168</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">

--- a/app/data/outroslinks.xlsx
+++ b/app/data/outroslinks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\@UFRJ\observatorio\paineldedados\app\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A09D5C-5DDF-4361-8F38-2569A5B41C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773A5AC0-9908-408C-AA36-A6A764CE23B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="184">
   <si>
     <t>local</t>
   </si>
@@ -40,25 +40,6 @@
     <t>descricao</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>IEGM</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> Índice de Efetividade da Gestão Municipal</t>
-    </r>
-  </si>
-  <si>
     <t>https://www.tcerj.tc.br/portal-tce-webapi/api/arquivos/f505333e-d7ae-4db3-9777-08d89d1e9cce/download</t>
   </si>
   <si>
@@ -92,25 +73,6 @@
     <t>O Índice de Gestão Municipal Aquila ( IGMA) foi criada para acompanhar a evolução dos municípios, sob a perspectivas das Cidades Excelentes. Com isso, essa metodologia serve como uma orientação que permite o monitoramento dos pilares do ciclo virtuoso de desenvolvimento municipal. Dessa maneira, o IGMA auxilia a entender o desenvolvimento municipal de uma forma mais aprofundada com dados do censo demográfico, utilizando dimensões como a saúde, educação e renda</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">IDHM </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Indice de Desenvolv. Humano Municipios</t>
-    </r>
-  </si>
-  <si>
     <t>http://ivs.ipea.gov.br/index.php/pt/planilha</t>
   </si>
   <si>
@@ -130,25 +92,6 @@
   </si>
   <si>
     <t>O Índice CFA de Governança Municipal ( IGM-CFA) foi criado para auxiliar os gestores públicos a entender, através de dados, quais seriam as possíveis oportunidades de melhorias em seu município. Com isso, o IGM-CFA analisa dados chamados Variáveis, que a média serve para a criação de indicadores, desse modo, as médias criam as dimensões e por consequência uma nota geral no índice.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">IFGF </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Índice FIRJAN de Gestão Fiscal</t>
-    </r>
   </si>
   <si>
     <t>https://www.firjan.com.br/ifgf/</t>
@@ -209,34 +152,6 @@
     <t>O Índice de Desenvolvimento Sustentável das Cidades (IDSC-BR) é uma ferramenta utilizada para estimular e monitorar o cumprimento de objetivos de Desenvolvimento Sustentável (ODS) nas cidades brasileiras. Com isso, sendo necessário 80 indicadores para realizar o índice e assim, torna-se oportuno para as cidades se integrarem a uma agenda global de desenvolvimento sustentável.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>IPS Rio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>-Índice de Progresso Social</t>
-    </r>
-  </si>
-  <si>
-    <t>http://ipsrio.com.br/</t>
-  </si>
-  <si>
-    <t>ISP RJ.png</t>
-  </si>
-  <si>
-    <t>O Índice de Progresso social (IPS) é uma abordagem que mensura de forma direta o desenvolvimento humano a partir de alguns indicadores. O IPS combina variáveis sociais utilizadas em avaliações do desenvolvimento humano e bem-estar como indicadores de saúde, nível de acesso e qualidade dos serviços básicos e educação básica e superior.</t>
-  </si>
-  <si>
     <t>GINI Índice da renda domiciliar per capita segundo Município</t>
   </si>
   <si>
@@ -249,56 +164,12 @@
     <t>O Índice de Gini da renda domiciliar per capita segundo Município demonstra a renda de pessoas residentes em determinado espaço geográfico, no ano considerado. Considerou-se como renda domiciliar per capita a soma dos rendimentos mensais dos moradores do domicílio, em reais, dividida pelo número de seus moradores por Município.</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>IVS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> Indicadores de vulnerabilidade social do município</t>
-    </r>
-  </si>
-  <si>
     <t>IVS-portal.png,IVS2.png</t>
   </si>
   <si>
-    <t>O  Índice de Vulnerabilidade Social (IVS) é um índice sintético que reúne indicadores do bloco de vulnerabilidade social do Atlas de Desenvolvimento Humano (ADH), os quais, são apresentados por meio de cartogramas e estruturados em diferentes dimensões, servem de suporte para a identificação de porções do território onde há a sobreposição daquelas situações indicativas de exclusão e vulnerabilidade social no território, de modo a orientar gestores públicos municipais, estaduais e federais para o desenho de políticas públicas mais sintonizadas com as carências e necessidades presentes nesses territórios.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>Índice de Theil-L</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> dos rendimentos do trabalho</t>
-    </r>
-  </si>
-  <si>
     <t>Theil-L.png</t>
   </si>
   <si>
-    <t>O Índice L de Theil é outro indicador sintético que mede a desigualdade de distribuição de renda.  Esse índice satisfaz os requisitos de um bom indicador de desigualdade, pois ele realiza a razão entre média aritmética e a média geométrica da distribuição de renda.</t>
-  </si>
-  <si>
     <t>IVJ Índice de Vulnerabilidade Juvenil à Violência</t>
   </si>
   <si>
@@ -323,29 +194,12 @@
     <t>https://www.ibge.gov.br/cidades-e-estados/rj/.html?</t>
   </si>
   <si>
-    <t xml:space="preserve">Portal QEDU </t>
-  </si>
-  <si>
     <t>https://www.qedu.org.br/</t>
   </si>
   <si>
     <t>Qedu1.png,Qedu2.png</t>
   </si>
   <si>
-    <t>Desenvolvimento Humano: IDHM ;  IDHM Renda;  IDHM Longevidade e  IDHM Educação
-Educação: Analfabetismo ; % de matrículas ; Defasagem/Distorção idade-série; Expectativa de anos de estudo; Escolaridade da população por faixa etaria; Frequência escolar e evasão ( 2012 - 2017 ); Qualidade da educação;  % de docentes com formação adequada; IDEB ; % de alunos em escolas com internet; escolas com laboratório de informática
-Habitação:  rede de esgotamento sanitário; domicílios com banheiro e água encanada; domicílios urbanos com coleta de lixo; com energia elétrica ; domicílios com densidade superior a 2 pessoas por dormitório; domicílios com paredes que não sejam de alvenaria ou madeira aparelhada
-Meio Ambiente :  % de cobertura vegetal natural;  Concentração dos focos de calor ( 2013 - 2017 )
-Participação política:  Dados do TSE ( 2013 - 2017 ) % de deputados, governadores, prefeitos, senadores e vereadores do sexo feminino 
-População : Indicadores demográficos, Esperança de vida ao nascer;  Mortalidade;  Probabilidade de sobrevivência ;  Taxa de fecundidade; Taxa de envelhecimento; População de referência dos indicadores: População total ; rural;  urbana;  Faixa etária; domicílios particulares permanentes; População economicamente ativa por faixa etária; População para pirâmide etária :  População por Faixa Etária e Sexo
-Renda :: Indicadores econômicos: Produto Interno Bruto per capita;  Participação da Administração Pública, Agropecuária, Indústria e Serviços no Valor Adicionado;  Rendimento médio no setor formal;  Valor Adicionado per capita
-Nível e desigualdade : Índice de Theil-L ; Índice de Gini;  Renda per capita;  % da renda proveniente de rendimentos do trabalho;  Rendimento médio dos ocupados; Relação entre Ricos x Pobres
-Pobreza e programas sociais :   % de pessoas inscritas no Cadastro Único que recebem Bolsa Família,  Transferência per capita do Bolsa Família e do Benefício de Prestação Continuada; % de extremamente pobres;  % de pobres;  % de vulneráveis à pobreza
-Saúde ( 2013 - 2017 ):  % de internações por doenças relacionadas ao saneamento ambiental inadequado;  % de internações;  % de pessoas cobertas por planos de saúde suplementar;  Taxa de incidência de AIDS;  Taxa de mortalidade por Motivo;  % de nascidos vivos com baixo peso ao nascer; Taxa de mortalidade materna
-Trabalho: Escolaridade dos ocupados; Ocupação/Desocupação; Taxa de atividade ; Taxa de desocupação; Posição na ocupação:que são empregados com carteira; que são trabalhadores do setor público; que são trabalhadores por conta própria; que são empregadores;  Grau de formalização dos ocupados; Rendimento dos ocupados: % dos ocupados no setor agropecuário, no setor extrativo mineral, na indústria, no setor de construção, no setor comércio e no setor de serviços
-Vulnerabilidade : % de pessoas em domicílios vulneráveis à pobreza e que gastam mais de uma hora até o trabalho;  % de pessoas vulneráveis e dependentes de idosos; % de mães chefes de família; % de crianças  extremamente pobres; % de crianças  que não frequentam a escola;  % de domicílios em que nenhum morador tem ensino fundamental completo;  %  sem ensino fundamental completo e em ocupação informal;  % de pessoas em domicílios sem energia elétrica;  % de pessoas em domicílios com paredes que não sejam de alvenaria ou madeira aparelhada;  % com abastecimento de água e esgotamento sanitário inadequados; % de adolescentes  que tiveram filhos</t>
-  </si>
-  <si>
     <t>IEGM Educação</t>
   </si>
   <si>
@@ -355,32 +209,12 @@
     <t>eigm-EDUCA.png</t>
   </si>
   <si>
-    <t>Os dados da educação (i-Educ) foram eleitos prioritários e compõem uma das sete (7) dimensões do Índice de Efetividade da Gestão Municipal (IEGM) da execução do orçamento público, com vistas a uma visão ampla da gestão voltada para melhorias estruturantes. Por esse mapa será possível saber a situação do ensino de cada um dos 91 municípios cujas contas são acompanhadas pelo TCE-RJ*. Na cor cinza estão os municípios que não enviaram as respostas aos questionários.</t>
-  </si>
-  <si>
-    <t>MPRJ Digital - Painel de Dados do Ministério Publico do RJ</t>
-  </si>
-  <si>
     <t>http://apps.mprj.mp.br/sistema/mprjdigital/</t>
   </si>
   <si>
     <t>MPRJ Digital-Uno.png</t>
   </si>
   <si>
-    <t>Educação(2013-2016) -Qdt. de Alunos por Etapa de Ensino; Matriculados: Creche, Ensino Fundamental Anos Finais e Iniciais,  Ensino Médio e Pré-Escola; Distorção Idade-Série;  Instituições de Ensino com Acessibilidade; Nota do IDEB; Rendimento Escolar; Complexidade da Gestão Escolar; Docente por Etapa de Ensino; Proporção de alunos por turma; Qdt. de Turmas por Etapa de Ensino; Adequação da Formação Docente; Esforço Docente; Docentes com Nível Superior;
-Execução Penal- Classificatório da Taxa de Ocupação de Penitenciárias; Taxa de Ocupação de Penitenciárias - Comparativo; Taxa Global de Ocupação;
-Infância -Qdt. de Conselho Tutelar por População; Distribuição da População Infantojuvenil Acolhida; IDConselho - Indicador de Desenvolvimento dos Conselhos Municipais de Assistencia Social; IDCRAS - Indicador de Desenvolvimento das unidades CRAS; IDCREAS - Indicador de Desenvolvimento das unidades CREAS. Novos ingressos de crianças no acompanhamento pelo PAEFI; Rede de Proteção SUAS
-Meio Ambiente -Abastecimento de Água, Esgotamento Sanitário e Planos de Bacia Hidrográfica; Gerenciamento de Resíduos Sólidos; População exposta a desastres naturais
-Saúde -Entrega do Plano Municipal de Saúde - PMS; Entrega do Relatório Anual de Gestão (RAG) aos Conselhos Municipais de Saúde; Entrega da Programação Anual de Saúde (PAS); Entrega do Relatório Anual de Gestão do SUS pelos Gestores Estadual e Municipal; Conselhos Municipais de Saúde;
-Qdt. de Profissionais de Saúde;Indicador de Visita Domiciliar da Vigilância Epidemiológica; Óbitos por Grandes Grupos de Doenças; Índice Rápido do Aedes aegypti (LIRAa); Qdt. de Médicos e Especialidades; Quantitativo de Instrumentos e Aparelhagem de Saúde; Profissionais por Tipo de Vinculação Empregatícia na Saúde Pública; Qdt. de Leitos Hospitalares de Internação;
-Segurança (2000-2016) -Estatística de Roubo de Carga; Série histórica dos óbitos por Intervenções Legais e Saldo de Óbitos por Intervenções Legais/Operações de Guerra e Agressões registrados pelo  SIM / DATASUS; Taxa de Letalidade Violenta por 100 mil Habitantes; Painel de Óbitos DATASUS / SIM; % de homens e mulheres vítimas de letalidade violenta; Apreensão de armas e Tipos de Armamentos; Comparação de Letalidade Policial com outros delitos; Ocorrência de Roubos, Furtos, Drogas e Outros Delitos;
-Eleitoral -Comparecimento e Abstenções de Eleitores; Gastos - Eleição 2016; Percentual de Votos Nulos e Brancos; Ranking de Gastos por Eleitor; Qdt. de Eleitores Classificados por Sexo e Idade; e Escolaridade
-Orçamentário (2013-2017) -Análise de Despesa de Pessoal sobre RCL; Composição de Despesas por Função e Subfunção; Planejamento Orçamentário Governo do Estado RJ 2019; Previsão de Receitas; Arrecadação X Empenho; Composição da Receita Arrecadada; Composição dos Gastos; Receita Tributária Municipal
-Consumidor -As 10 mais reclamadas por município; Reclamações cadastradas no portal Consumidor.GOV
-Violência Doméstica -Rede Especializada de Atendimento à Mulher; Tentativa e Incidência de Feminicídio; Óbitos Femininos por Agressão em Domicílio e em Via Pública
-Idoso -Conselho Municipal do Idoso; Novos ingressos de idosos e deficientes no acompanhamento pelo PAEFI</t>
-  </si>
-  <si>
     <t>Portal MEU MUNICÍPIO - Inesper</t>
   </si>
   <si>
@@ -390,26 +224,6 @@
     <t>meumunicipio1.png,meumunicipio2.png</t>
   </si>
   <si>
-    <t>O Meu Município foi desenvolvido com o objetivo de permitir comparações entre os municípios brasileiros. Através da comparação, estimulamos gestores públicos a melhores práticas para uma gestão mais eficiente.
-Analise Geral:
-    Receita - Corrente, de Capital, Corrente Itra Orçamentário Capital IntraOrçamentario, Deduções, e outras
-    Despesas - Corrente, Per Capita, e outras
-Eficiencia de Gastos: Até o momento o Site apresenta apenas análise dos Dados de Educação
-    Evolução do Ideb x despesas em educação por aluno
-    Evolução do número de matrículas x despesas totais em educação
-    Indicadores de desempenho educacional:  Nota IDEB; Matrículas e escolas; Indicadores de gestão da rede; Tamanho de turmas e hora de aula; Acesso a infraestrutura e serviços(Fonte: QEDU)
-Indicadores:
-    Receita Tributária per Capita
-    Vinculação da Receita Corrente
-    Capacidade de Poupar
-    Resultado Fiscal
-    Despesa com Prest. De  Serv.per capita
-    Investimento per Capita
-    Endividamento bruto
-    Geração de Receita Própria
-Glossário: O Portal disponibiliza um Glossário completo de Termos uteis para a Gestão Publica</t>
-  </si>
-  <si>
     <t>Portal de Dados dos Municípios TCE RJ</t>
   </si>
   <si>
@@ -419,25 +233,6 @@
     <t>tce11.png,tce2.png</t>
   </si>
   <si>
-    <t>Graficos e Detalhamento dos Dados do Sistema Integrado de Gestão Fiscal:
-    Gerais: IDH (2010), PIB(2018) e População Estimada (2020)
-    Compras Diretas Gerais - Quant.de Dispensas por Unidade Gestadora, por Enquadre Legal e Valores Dispensas por Mês (Fonte: Sistema TCERJ)
-    Compras Diretas Covid:Del.313 - Valor e Quant. Total Dispensa(s) no município, Fornecedores, Atos Emergenciais (Fonte: Sistema TCERJ)
-    Contratos - Contratatados, Valores, Distibuição por Ano (Fonte: SIGFIS)
-    Despesas com Educação - IDEB, Aplicação do Limite Constitucional, Despesas por Aluno em relação a média do Município, Aplicação de  Recursos em Educação, etc (Fonte: INEP e SIGFIS)
-    Despesas com Saúde - Aplicação do Limite Constitucional, Despesas Per Capita por Ano relação a média do Município, Aplicação de  Recursos em Saúde, etc (Fonte: SIGFIS)
-    Licitações - Valores e Quantidade de Licitações por mês, por Modalidade, Dados dos Vencedores e Dados dos Participantes.(Fonte: SIGFIS)
-     Obras Paralizadas - Motivos Obras Paralisadas, Distribuição Custo Obras, Tempo de Paralisação; (Fonte: Sistema TCERJ)
-    Prestação Contas - Pareceres considerando as Apurações /os exames de conformidade documentaç e auditoria de natureza operacional e financeira (Fontes INSCAP - Sist.de Controle e Acompanhamento Processual)
-    Compras Diretas Covid:Del.313 - Valor e Quant. Total Dispensa(s) no município, Fornecedores, Atos Emergenciais (Fonte: Sistema TCERJ)
-    Contratos - Contratatados, Valores, Distibuição por Ano (Fonte: SIGFIS)
-    Despesas com Educação - IDEB, Aplicação do Limite Constitucional, Despesas por Aluno em relação a média do Município, Aplicação de  Recursos em Educação, etc (Fonte: INEP e SIGFIS)
-    Despesas com Saúde - Aplicação do Limite Constitucional, Despesas Per Capita por Ano relação a média do Município, Aplicação de  Recursos em Saúde, etc (Fonte: SIGFIS)
-    Licitações - Valores e Quantidade de Licitações por mês, por Modalidade, Dados dos Vencedores e Dados dos Participantes.(Fonte: SIGFIS)
-     Obras Paralizadas - Motivos Obras Paralisadas, Distribuição Custo Obras, Tempo de Paralisação; (Fonte: Sistema TCERJ)
-    Prestação Contas - Pareceres considerando as Apurações /os exames de conformidade documentaç e auditoria de natureza operacional e financeira (Fontes INSCAP - Sist.de Controle e Acompanhamento Processual)</t>
-  </si>
-  <si>
     <t>Portal da Transparencia - Estados e Municipios</t>
   </si>
   <si>
@@ -447,17 +242,6 @@
     <t>Transparencia1.png,Transparencia3.png</t>
   </si>
   <si>
-    <t xml:space="preserve">
-O Portal da Transparência integra e apresenta dados de diversos sistemas utilizados pelo Governo Federal objetivando prover transparência da gestão pública, além de instrumentalizar a sociedade para a realização do controle social.Em forma de Gráficos, Detalhes dados e Tabelas para Downloas e Comparativo entre localidades: população x recursos recebidos. Os dados são recebidos com periodicidade diária, semanal e mensal, a depender do tema, e são de responsabilidade dos ministérios e outros órgãos do Poder Executivo Federal.
-    Recursos do Governo Federal transferidos e aplicados na localidade
-    Gastos diretos do governo federal no município
-    Benefícios aos cidadãos do município: Auxílio Emergencial; PETI; Bolsa Família; Seguro Defeso; BPC; Garantia-Safra
-    Convênios e outros acordos na localidade
-    Relatórios de auditoria
-    Transferências constitucionais e Royalties
-    Transferências legais, Voluntárias e específicas</t>
-  </si>
-  <si>
     <t>Portal das Transferências constitucionais - CNM</t>
   </si>
   <si>
@@ -465,12 +249,6 @@
   </si>
   <si>
     <t>CNM-transferencia1.png</t>
-  </si>
-  <si>
-    <t>Transferências constitucionais:
-    Distribuição das transferências acumuladas do ano
-    Últimas transferências
-    Evolução dos repasses por tipo e ano</t>
   </si>
   <si>
     <t>Exportação e Importação Municípios</t>
@@ -509,18 +287,6 @@
     <t>STI-TESOURO1.png,STI_cauc1.png</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Disponibiliza informações acerca do cumprimento de requisitos fiscais por parte dos municípios, dos estados e do distrito federal necessários à celebração de instrumentos para transferência de recursos do governo federal.
-    Extrato (informações de comprovação);
-    I - Obrigações de Adimplência Financeira
-    II - Adimplemento na Prestação de Contas de Convênios
-    III - Obrigações de Transparência
-    IV - Adimplemento de Obrigações Constitucionais ou Legais
-    V - Cumprimento de Limites Constitucionais e Legais
-    Transparência (informações gerenciais e inscrição para recebimento de avisos); e
-    Informações (informações sobre legislação, perguntas frequentes, tutorial, entre outros).</t>
-  </si>
-  <si>
     <t>Mandada ODS nos Municipios -CNM /CiDados</t>
   </si>
   <si>
@@ -543,21 +309,6 @@
     <t>IDMS-CNM1.png,IDMS2.png</t>
   </si>
   <si>
-    <t>Sociocultural
-    Educação: Acesso e Permanência Escolar; Desempenho Escolar; Infraestrutura Escolar; Qualidade de Ensino
-    Saúde: Cobertura da Atenção Básica; Fatores de Risco e Proteção; Morbidade; Mortalidade
-    Cultura: Estrutura de Gestão para Promoção da Cultura; Infraestrutura Cultural; Iniciativas Culturais da Sociedade; Recursos na Cultura
-    Habitação: Estrutura de Gestão para Políticas Habitacionais; Qualidade Habitaciona
-Econômica
-    Econômica: Agregação de Valor Econômico; Dinamismo Econômico; Nível de Renda
-Ambiental
-    Meio Ambiente: Cobertura de Saneamento Básico; Gestão Ambiental;Preservação Ambiental
-Político Institucional
-    Finanças Públicas: Capacidade de Receita; Estímulo ao Investimento; Saúde Financeira
-    Gestão Pública: Articulação com o Exterior; Capacidade de Planejamento; Gestão Financeira; Governo Eletrônico; Qualidade do Quadro Funcional
-    Participação Social: Participação Eleitoral; Representatividade de Gêneros</t>
-  </si>
-  <si>
     <t>ECI Edificando Controle Interno</t>
   </si>
   <si>
@@ -567,10 +318,6 @@
     <t>ECI-Edificando.png</t>
   </si>
   <si>
-    <t>A classificação, especialmente desenvolvida para este projeto, possui uma gradação, em notas de 0 a 10, correspondente ao nível de maturidade apresentado por cada município no diagnóstico do seu sistema de controle interno.
-Dimensões: Auditoria -  Ouvidoria - Corregedoria - Controladoria - Transparência - Auxílio ao Controle Externo – Estrutura  - Abrangência (alcance das atividades)  -  Autonomia - Regulamentação - Orçamento (Controle dos recursos e Metas) - Planejamento - Evolução de desenvolvimento dos sistemas - Resolutividade - Concretização de Políticas Públicas - Iniciativa Louvável (atividades inovadoras)</t>
-  </si>
-  <si>
     <t>SEBRAE - Empresas e Empregados</t>
   </si>
   <si>
@@ -580,9 +327,6 @@
     <t>SEBRAE.png</t>
   </si>
   <si>
-    <t xml:space="preserve">Empresas - Empregados e Salarios - Economia, PIB por Região e por Setor- Arrecação de Impostos - População Estimada - Indices de Desenvolvimento - Programas Sociais e População de Baixa Renda - Agronegócio </t>
-  </si>
-  <si>
     <t>Evolução de Emprego do CAGED - EEC</t>
   </si>
   <si>
@@ -592,10 +336,6 @@
     <t>ME.png</t>
   </si>
   <si>
-    <t>o Ministério do Trabalho e Emprego preparou um conjunto de tabelas que contém informações desagregadas segundo os setores econômicos do IBGE, e classificadas por estados da Federação, principais regiões metropolitanas e municípios com mais de 10.000 habitantes. Atualizado ate dez.2019.
-Alem disso o ministerio do Trabalho disponibilizou a plataforma PDET - PROGRAMA DE DISSEMINAÇÃO DAS ESTATÍSTICAS DO TRABALHO, por objetivo divulgar informações oriundas de dois Registros Administrativos, RAIS - Relação Anual de Informações Sociais - e CAGED - Cadastro Geral de Empregados e Desempregados, à sociedade civil. Entretanto a maioria dos dados são apresentados agrupando dados por UF e não por Municípios.  (Fonte  http://det.mte.gov.br/o-programa)</t>
-  </si>
-  <si>
     <t>Consórcios Públicos por municípios consorciados</t>
   </si>
   <si>
@@ -617,17 +357,6 @@
     <t>DadosBrasil1.png</t>
   </si>
   <si>
-    <t>Dados por municipio como:
-    Frota de veículos automotores
-    Serviço Militar Obrigatório
-    Benefício de Prestação Continuada- BPC
-    Estações de Tratamento de Esgoto (2019)
-    Auxílio Emergencial (AE)
-    Anatel - Indicadores de Domicílios com Banda Larga
-    Bolsa Família - MI Social
-    Programa Banda Larga nas Escolas - PBLE</t>
-  </si>
-  <si>
     <t>Rede + Brasil</t>
   </si>
   <si>
@@ -655,29 +384,7 @@
     <t>Mobilidade1.png,Mobilidade2.png</t>
   </si>
   <si>
-    <t xml:space="preserve">http://bicicletanosplanos.org/
-https://www.mobilize.org.br/
-https://observatoriodabicicleta.org.br/sobre/
-Plano de Mobilidade Urbana: Armação dos Buzios e Paty dos Alferes
-</t>
-  </si>
-  <si>
     <t>Portais de Dados de Saúde</t>
-  </si>
-  <si>
-    <t>e-Gestor  Informação e Gestão da Atenção Basica - https://egestorab.saude.gov.br/
-Portal APS - Secretaria de Atenção Primária a Saúde - http://aps.saude.gov.br/
-Open DataSUS - https://opendatasus.saude.gov.br/
-Ministerio da Saude-Dados.org - https://dados.gov.br/organization/ministerio-da-saude-ms?q=municipio&amp;sort=score+desc%2C+metadata_modified+desc&amp;page=2
-Portal Sage - Sage https://sage.saude.gov.br/paineis/planoCrack/lista_caps.php?output=html
-FNS - Fundo Nacional de Saúde - https://portalfns.saude.gov.br/
-CNES - Cadastro Nacional de Estabelecimentos de Saúde - http://tabnet.datasus.gov.br/cgi/deftohtm.exe?cnes/cnv/atencRJ.def
-SISAB Sistema de Informação em Saúde para a Atenção Básica- https://sisab.saude.gov.br/
-TabNet DataSUS - http://tabnet.datasus.gov.br/
-Fiocruz Atenção Basica - https://pensesus.fiocruz.br/atencao-basica
-DataSUS - https://datasus.saude.gov.br/
-Painéis de Indicadores da Atenção Primária - https://sisaps.saude.gov.br/painelsaps/
-Sistema de Informações sobre Nascidos Vivos - SINASC - http://tabnet.datasus.gov.br/cgi/tabcgi.exe?sinasc/cnv/nvrj.def</t>
   </si>
   <si>
     <t>Indices de Sustentabilidade</t>
@@ -701,19 +408,6 @@
 Obs: Não tem os dados dos municípios da Catatedra.</t>
   </si>
   <si>
-    <t>Diversos</t>
-  </si>
-  <si>
-    <t>Unidades de Conservação no Brasil
-https://uc.socioambiental.org/mapa
-Lixões
-http://www.lixoes.cnm.org.br/
-INEPAC- Patrimônio Cultural
-http://www.inepac.rj.gov.br
-ISPDados -Dados Abertos do Instituto de Segurança Pública
-http://www.ispvisualizacao.rj.gov.br/Letalidade.html</t>
-  </si>
-  <si>
     <t>DataViva</t>
   </si>
   <si>
@@ -778,59 +472,309 @@
 Disponibilizar dados e fomentar pesquisas sobre OSCs; e apoiar os gestores públicos a tomarem decisões sobre políticas públicas que já têm ou possam ter interface com OSCs.</t>
   </si>
   <si>
-    <t>História e Fotos, Gentilico, Prefeito
-População:     População estimada [2020]; População por Religião 
-Trabalho e Rendimento:     Salário médio mensal dos trabalhadores formais [2018]; Pessoal ocupado [2018]; %População ocupada [2018]; % da população com rendimento  per capita de até 1/2 salário mínimo [2010]
-Arborização de vias públicas [2010]; Urbanização de vias públicas [2010]    ;Bioma [2019]; 
+    <t>ibge1.png,ibge2.png,IBGE_pesq.png</t>
+  </si>
+  <si>
+    <t>ComercioExterior2.png,ComercioExterior3.png</t>
+  </si>
+  <si>
+    <t>Saude1.png,Saude2.png</t>
+  </si>
+  <si>
+    <t>diversos.jpg</t>
+  </si>
+  <si>
+    <t>IVS_juventude.png</t>
+  </si>
+  <si>
+    <t>IEGM Índice de Efetividade da Gestão Municipal</t>
+  </si>
+  <si>
+    <t>IDHM Indice de Desenvolv. Humano Municipios</t>
+  </si>
+  <si>
+    <t>IFGF Índice FIRJAN de Gestão Fiscal</t>
+  </si>
+  <si>
+    <t>IVS Indicadores de vulnerabilidade social do município</t>
+  </si>
+  <si>
+    <t>O Índice de Vulnerabilidade Social (IVS) é um índice sintético que reúne indicadores do bloco de vulnerabilidade social do Atlas de Desenvolvimento Humano (ADH), os quais, são apresentados por meio de cartogramas e estruturados em diferentes dimensões, servem de suporte para a identificação de porções do território onde há a sobreposição daquelas situações indicativas de exclusão e vulnerabilidade social no território, de modo a orientar gestores públicos municipais, estaduais e federais para o desenho de políticas públicas mais sintonizadas com as carências e necessidades presentes nesses territórios.</t>
+  </si>
+  <si>
+    <t>Índice de Theil-L dos rendimentos do trabalho</t>
+  </si>
+  <si>
+    <t>O Índice L de Theil é outro indicador sintético que mede a desigualdade de distribuição de renda. Esse índice satisfaz os requisitos de um bom indicador de desigualdade, pois ele realiza a razão entre média aritmética e a média geométrica da distribuição de renda.</t>
+  </si>
+  <si>
+    <t>Portal QEDU</t>
+  </si>
+  <si>
+    <t>Desenvolvimento Humano: IDHM ; IDHM Renda; IDHM Longevidade e IDHM Educação
+Educação: Analfabetismo ; % de matrículas ; Defasagem/Distorção idade-série; Expectativa de anos de estudo; Escolaridade da população por faixa etaria; Frequência escolar e evasão ( 2012 - 2017 ); Qualidade da educação; % de docentes com formação adequada; IDEB ; % de alunos em escolas com internet; escolas com laboratório de informática
+Habitação: rede de esgotamento sanitário; domicílios com banheiro e água encanada; domicílios urbanos com coleta de lixo; com energia elétrica ; domicílios com densidade superior a 2 pessoas por dormitório; domicílios com paredes que não sejam de alvenaria ou madeira aparelhada
+Meio Ambiente : % de cobertura vegetal natural; Concentração dos focos de calor ( 2013 - 2017 )
+Participação política: Dados do TSE ( 2013 - 2017 ) % de deputados, governadores, prefeitos, senadores e vereadores do sexo feminino 
+População : Indicadores demográficos, Esperança de vida ao nascer; Mortalidade; Probabilidade de sobrevivência ; Taxa de fecundidade; Taxa de envelhecimento; População de referência dos indicadores: População total ; rural; urbana; Faixa etária; domicílios particulares permanentes; População economicamente ativa por faixa etária; População para pirâmide etária : População por Faixa Etária e Sexo
+Renda :: Indicadores econômicos: Produto Interno Bruto per capita; Participação da Administração Pública, Agropecuária, Indústria e Serviços no Valor Adicionado; Rendimento médio no setor formal; Valor Adicionado per capita
+Nível e desigualdade : Índice de Theil-L ; Índice de Gini; Renda per capita; % da renda proveniente de rendimentos do trabalho; Rendimento médio dos ocupados; Relação entre Ricos x Pobres
+Pobreza e programas sociais : % de pessoas inscritas no Cadastro Único que recebem Bolsa Família, Transferência per capita do Bolsa Família e do Benefício de Prestação Continuada; % de extremamente pobres; % de pobres; % de vulneráveis à pobreza
+Saúde ( 2013 - 2017 ): % de internações por doenças relacionadas ao saneamento ambiental inadequado; % de internações; % de pessoas cobertas por planos de saúde suplementar; Taxa de incidência de AIDS; Taxa de mortalidade por Motivo; % de nascidos vivos com baixo peso ao nascer; Taxa de mortalidade materna
+Trabalho: Escolaridade dos ocupados; Ocupação/Desocupação; Taxa de atividade ; Taxa de desocupação; Posição na ocupação:que são empregados com carteira; que são trabalhadores do setor público; que são trabalhadores por conta própria; que são empregadores; Grau de formalização dos ocupados; Rendimento dos ocupados: % dos ocupados no setor agropecuário, no setor extrativo mineral, na indústria, no setor de construção, no setor comércio e no setor de serviços
+Vulnerabilidade : % de pessoas em domicílios vulneráveis à pobreza e que gastam mais de uma hora até o trabalho; % de pessoas vulneráveis e dependentes de idosos; % de mães chefes de família; % de crianças extremamente pobres; % de crianças que não frequentam a escola; % de domicílios em que nenhum morador tem ensino fundamental completo; % sem ensino fundamental completo e em ocupação informal; % de pessoas em domicílios sem energia elétrica; % de pessoas em domicílios com paredes que não sejam de alvenaria ou madeira aparelhada; % com abastecimento de água e esgotamento sanitário inadequados; % de adolescentes que tiveram filhos</t>
+  </si>
+  <si>
+    <t>Contém os principais dados do ensino básico (2006-2020) 
+Aprendizado dos alunos do 5º e 9º anos em matemática e português, obtidos através do resultado na Prova Brasil; 
+Perfil dos alunos 5º e 9º, professores e diretores das escolas que realizaram a Prova Brasil, o que falam sobre práticas de estudo e práticas de ensino, suas percepções e ocorrências na escola. Os dados do perfil das pessoas são obtidos através de questionários realizados conjuntamente com a prova; 
+Matrículas para cada etapa escolar obtidas por meio do Censo Escolar; 
+Taxas de aprovação, abandono e reprovação, também conhecidas como Taxas de Rendimento; 
+Distorção idade série, que informa quantos alunos estão matriculados com dois anos de idade ou mais em relação ao adequado para a série; 
+Infraestrutura escolar, que informa sobre existência de bibliotecas, quadras esportivas, acessibilidade etc.; 
+Alimentação; Serviços; Dependências;Equipamentos;Acessibilidade; 
+Tecnologia - Internet; Banda larga; Computadores uso dos alunos;Computadores uso administrativo 
+Ideb, o principal indicador da qualidade da educação no Brasil; 
+Nível sócio econômico de diretores, professores e alunos e muito mais.</t>
+  </si>
+  <si>
+    <t>MPRJ In Loco</t>
+  </si>
+  <si>
+    <t>http://apps.mprj.mp.br/sistema/inloco/</t>
+  </si>
+  <si>
+    <t>Plataforma de mapas interativos criada pelo Ministério Público do Estado do Rio de Janeiro, permitindo ao usuário visualizar e sobrepor dados geográficos de diversos assuntos 
+Ambiental e Urbanismo (Dados de Saneamento, Lixões, Riscos Ambientais, Rede de Abastecimento..) - ; Patrimônio Cultural; Infraestrutura( Serviços Públicos; Abastecimento de Água: Acesso ao Esgotamento Sanitário;Acesso à Energia Elétrica; Serviço de Coleta de Lixo); 
+Habitação e Território - (ocupações Irregulares - Gestão do Território, Comunidades; Favelas; População Subnormal ,..) 
+Procon - Ouvidoria - Regiões Eleitorais - 
+Instituições Adms, Juridica e Sociais (ADINs;CRAAI;Cartórios;Fundações; Fórum; Núcleos de Tutela Coletiva do Idoso e Pessoa Deficiente; Núcleos de Tutela Coletiva do Meio Ambiente; Promotorias; APAEs e Instituições Beneficentes; Acolhimento; Centros de Convivência do Idoso; SUAS: CREAS) 
+LIMITES POLÍTICOS: Distritos; Municípios; Pontos de Referência dos Distritos do RJ; R.A.- Regiões Administrativas (Rio); Setores Censitários de 2010; Áreas de Planejamento; BAIRROS:Equipamentos Sociais; População; Violência; Limite de Bairros 
+Censo Populacional: População e Densidade Populacional; #de renda por domicílios (per capita); % de mulheres por faixa etária; % por etnias; % por faixa etária; População Idosa; População Infantil; Total população e domicílios 
+Educação: Suspensões de Dias Letivos;Controle Social na Educação;Creches;DEGASE: Unidades Socioeducativas de Internação; Escolas;Escolas Acessíveis;Escolas: IDEB;Razão entre Matriculados e População; Regionais de Educação - CREs; 
+Saúde:Vigilância Epidemiológica; Vigilância Sanitária; Vigilância em Saúde; Complexo de Regulação; Conselhos Municipais de Saúde; Equipamentos de Saúde - Contratos com OSS; Rede de Urgência e Emergência ; Regiões de Saúde do Estado; Secret. Municipais de Saúde 
+Indicadores Socioeconômicos: Empreendimentos Geradores de Energia; Escala Brasil Transparente - EBT; Ranking da Transparência MPF; Índice ECI - Edificando Controle Interno; Índice FIRJAN; Índice de Desenvolvimento Humano Municipal - IDH-M; Índice de Gini; Índice de Progresso Social - IPS Rio; Índice de Vulnerabilidade Juvenil à Violência; Índice de Vulnerabilidade Social - IVS; Índices do PIND e PINDCRI (Criança) 
+Transporte (Acidentes; Conexões Intermunicipais; Entroncamentos; Fiscalização Rodoviária Eletrônica;Lei Seca - Ocorrências;Emplacamentos;Estações, Trajetos, Pontos de embarque, Quant.: BRT; Bicicleta; Bonde ; Metrô; Rodovias; Teleférico; Trem - ;VLT; Ônibus) 
+Segurança ( Ações Policiais; Institutos de Segurança Publica; Facções Criminosas;Fogo Cruzado; OTT: Mapa de Calor; OTT: Ocorrências; OTT: Tiroteios nas Comunidades; Violencia Domestica)</t>
+  </si>
+  <si>
+    <t>MPRJ Digital</t>
+  </si>
+  <si>
+    <t>MPRJ-DigitalUno.png</t>
+  </si>
+  <si>
+    <t>Educação(2013-2016) -Qdt. de Alunos por Etapa de Ensino; Matriculados: Creche, Ensino Fundamental Anos Finais e Iniciais, Ensino Médio e Pré-Escola; Distorção Idade-Série; Instituições de Ensino com Acessibilidade; Nota do IDEB; Rendimento Escolar; Complexidade da Gestão Escolar; Docente por Etapa de Ensino; Proporção de alunos por turma; Qdt. de Turmas por Etapa de Ensino; Adequação da Formação Docente; Esforço Docente; Docentes com Nível Superior; 
+Execução Penal- Classificatório da Taxa de Ocupação de Penitenciárias; Taxa de Ocupação de Penitenciárias - Comparativo; Taxa Global de Ocupação; 
+Infância -Qdt. de Conselho Tutelar por População; Distribuição da População Infantojuvenil Acolhida; IDConselho - Indicador de Desenvolvimento dos Conselhos Municipais de Assistencia Social; IDCRAS - Indicador de Desenvolvimento das unidades CRAS; IDCREAS - Indicador de Desenvolvimento das unidades CREAS. Novos ingressos de crianças no acompanhamento pelo PAEFI; Rede de Proteção SUAS 
+Meio Ambiente -Abastecimento de Água, Esgotamento Sanitário e Planos de Bacia Hidrográfica; Gerenciamento de Resíduos Sólidos; População exposta a desastres naturais 
+Saúde -Entrega do Plano Municipal de Saúde - PMS; Entrega do Relatório Anual de Gestão (RAG) aos Conselhos Municipais de Saúde; Entrega da Programação Anual de Saúde (PAS); Entrega do Relatório Anual de Gestão do SUS pelos Gestores Estadual e Municipal; Conselhos Municipais de Saúde; 
+Qdt. de Profissionais de Saúde;Indicador de Visita Domiciliar da Vigilância Epidemiológica; Óbitos por Grandes Grupos de Doenças; Índice Rápido do Aedes aegypti (LIRAa); Qdt. de Médicos e Especialidades; Quantitativo de Instrumentos e Aparelhagem de Saúde; Profissionais por Tipo de Vinculação Empregatícia na Saúde Pública; Qdt. de Leitos Hospitalares de Internação; 
+Segurança (2000-2016) -Estatística de Roubo de Carga; Série histórica dos óbitos por Intervenções Legais e Saldo de Óbitos por Intervenções Legais/Operações de Guerra e Agressões registrados pelo SIM / DATASUS; Taxa de Letalidade Violenta por 100 mil Habitantes; Painel de Óbitos DATASUS / SIM; % de homens e mulheres vítimas de letalidade violenta; Apreensão de armas e Tipos de Armamentos; Comparação de Letalidade Policial com outros delitos; Ocorrência de Roubos, Furtos, Drogas e Outros Delitos; 
+Eleitoral -Comparecimento e Abstenções de Eleitores; Gastos - Eleição 2016; Percentual de Votos Nulos e Brancos; Ranking de Gastos por Eleitor; Qdt. de Eleitores Classificados por Sexo e Idade; e Escolaridade 
+Orçamentário (2013-2017) -Análise de Despesa de Pessoal sobre RCL; Composição de Despesas por Função e Subfunção; Planejamento Orçamentário Governo do Estado RJ 2019; Previsão de Receitas; Arrecadação X Empenho; Composição da Receita Arrecadada; Composição dos Gastos; Receita Tributária Municipal 
+Consumidor -As 10 mais reclamadas por município; Reclamações cadastradas no portal Consumidor.GOV 
+Violência Doméstica -Rede Especializada de Atendimento à Mulher; Tentativa e Incidência de Feminicídio; Óbitos Femininos por Agressão em Domicílio e em Via Pública 
+Idoso -Conselho Municipal do Idoso; Novos ingressos de idosos e deficientes no acompanhamento pelo PAEFI</t>
+  </si>
+  <si>
+    <t>O Meu Município foi desenvolvido com o objetivo de permitir comparações entre os municípios brasileiros. Através da comparação, estimulamos gestores públicos a melhores práticas para uma gestão mais eficiente.
+Analise Geral:
+Receita - Corrente, de Capital, Corrente Itra Orçamentário Capital IntraOrçamentario, Deduções, e outras
+Despesas - Corrente, Per Capita, e outras
+Eficiencia de Gastos: Até o momento o Site apresenta apenas análise dos Dados de Educação
+Evolução do Ideb x despesas em educação por aluno
+Evolução do número de matrículas x despesas totais em educação
+Indicadores de desempenho educacional: Nota IDEB; Matrículas e escolas; Indicadores de gestão da rede; Tamanho de turmas e hora de aula; Acesso a infraestrutura e serviços(Fonte: QEDU)
+Indicadores:
+Receita Tributária per Capita
+Vinculação da Receita Corrente
+Capacidade de Poupar
+Resultado Fiscal
+Despesa com Prest. De Serv.per capita
+Investimento per Capita
+Endividamento bruto
+Geração de Receita Própria
+Glossário: O Portal disponibiliza um Glossário completo de Termos uteis para a Gestão Publica</t>
+  </si>
+  <si>
+    <t>Graficos e Detalhamento dos Dados do Sistema Integrado de Gestão Fiscal:
+Gerais: IDH (2010), PIB(2018) e População Estimada (2020)
+Compras Diretas Gerais - Quant.de Dispensas por Unidade Gestadora, por Enquadre Legal e Valores Dispensas por Mês (Fonte: Sistema TCERJ)
+Compras Diretas Covid:Del.313 - Valor e Quant. Total Dispensa(s) no município, Fornecedores, Atos Emergenciais (Fonte: Sistema TCERJ)
+Contratos - Contratatados, Valores, Distibuição por Ano (Fonte: SIGFIS)
+Despesas com Educação - IDEB, Aplicação do Limite Constitucional, Despesas por Aluno em relação a média do Município, Aplicação de Recursos em Educação, etc (Fonte: INEP e SIGFIS)
+Despesas com Saúde - Aplicação do Limite Constitucional, Despesas Per Capita por Ano relação a média do Município, Aplicação de Recursos em Saúde, etc (Fonte: SIGFIS)
+Licitações - Valores e Quantidade de Licitações por mês, por Modalidade, Dados dos Vencedores e Dados dos Participantes.(Fonte: SIGFIS)
+Obras Paralizadas - Motivos Obras Paralisadas, Distribuição Custo Obras, Tempo de Paralisação; (Fonte: Sistema TCERJ)
+Prestação Contas - Pareceres considerando as Apurações /os exames de conformidade documentaç e auditoria de natureza operacional e financeira (Fontes INSCAP - Sist.de Controle e Acompanhamento Processual)
+Compras Diretas Covid:Del.313 - Valor e Quant. Total Dispensa(s) no município, Fornecedores, Atos Emergenciais (Fonte: Sistema TCERJ)
+Contratos - Contratatados, Valores, Distibuição por Ano (Fonte: SIGFIS)
+Despesas com Educação - IDEB, Aplicação do Limite Constitucional, Despesas por Aluno em relação a média do Município, Aplicação de Recursos em Educação, etc (Fonte: INEP e SIGFIS)
+Despesas com Saúde - Aplicação do Limite Constitucional, Despesas Per Capita por Ano relação a média do Município, Aplicação de Recursos em Saúde, etc (Fonte: SIGFIS)
+Licitações - Valores e Quantidade de Licitações por mês, por Modalidade, Dados dos Vencedores e Dados dos Participantes.(Fonte: SIGFIS)
+Obras Paralizadas - Motivos Obras Paralisadas, Distribuição Custo Obras, Tempo de Paralisação; (Fonte: Sistema TCERJ)
+Prestação Contas - Pareceres considerando as Apurações /os exames de conformidade documentaç e auditoria de natureza operacional e financeira (Fontes INSCAP - Sist.de Controle e Acompanhamento Processual)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+O Portal da Transparência integra e apresenta dados de diversos sistemas utilizados pelo Governo Federal objetivando prover transparência da gestão pública, além de instrumentalizar a sociedade para a realização do controle social.Em forma de Gráficos, Detalhes dados e Tabelas para Downloas e Comparativo entre localidades: população x recursos recebidos. Os dados são recebidos com periodicidade diária, semanal e mensal, a depender do tema, e são de responsabilidade dos ministérios e outros órgãos do Poder Executivo Federal.
+Recursos do Governo Federal transferidos e aplicados na localidade
+Gastos diretos do governo federal no município
+Benefícios aos cidadãos do município: Auxílio Emergencial; PETI; Bolsa Família; Seguro Defeso; BPC; Garantia-Safra
+Convênios e outros acordos na localidade
+Relatórios de auditoria
+Transferências constitucionais e Royalties
+Transferências legais, Voluntárias e específicas</t>
+  </si>
+  <si>
+    <t>Transferências constitucionais:
+Distribuição das transferências acumuladas do ano
+Últimas transferências
+Evolução dos repasses por tipo e ano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Disponibiliza informações acerca do cumprimento de requisitos fiscais por parte dos municípios, dos estados e do distrito federal necessários à celebração de instrumentos para transferência de recursos do governo federal.
+Extrato (informações de comprovação);
+I - Obrigações de Adimplência Financeira
+II - Adimplemento na Prestação de Contas de Convênios
+III - Obrigações de Transparência
+IV - Adimplemento de Obrigações Constitucionais ou Legais
+V - Cumprimento de Limites Constitucionais e Legais
+Transparência (informações gerenciais e inscrição para recebimento de avisos); e
+Informações (informações sobre legislação, perguntas frequentes, tutorial, entre outros).</t>
+  </si>
+  <si>
+    <t>A classificação, especialmente desenvolvida para este projeto, possui uma gradação, em notas de 0 a 10, correspondente ao nível de maturidade apresentado por cada município no diagnóstico do seu sistema de controle interno.
+Dimensões: Auditoria - Ouvidoria - Corregedoria - Controladoria - Transparência - Auxílio ao Controle Externo – Estrutura - Abrangência (alcance das atividades) - Autonomia - Regulamentação - Orçamento (Controle dos recursos e Metas) - Planejamento - Evolução de desenvolvimento dos sistemas - Resolutividade - Concretização de Políticas Públicas - Iniciativa Louvável (atividades inovadoras)</t>
+  </si>
+  <si>
+    <t>Empresas - Empregados e Salarios - Economia, PIB por Região e por Setor- Arrecação de Impostos - População Estimada - Indices de Desenvolvimento - Programas Sociais e População de Baixa Renda - Agronegócio</t>
+  </si>
+  <si>
+    <t>o Ministério do Trabalho e Emprego preparou um conjunto de tabelas que contém informações desagregadas segundo os setores econômicos do IBGE, e classificadas por estados da Federação, principais regiões metropolitanas e municípios com mais de 10.000 habitantes. Atualizado ate dez.2019.
+Alem disso o ministerio do Trabalho disponibilizou a plataforma PDET - PROGRAMA DE DISSEMINAÇÃO DAS ESTATÍSTICAS DO TRABALHO, por objetivo divulgar informações oriundas de dois Registros Administrativos, RAIS - Relação Anual de Informações Sociais - e CAGED - Cadastro Geral de Empregados e Desempregados, à sociedade civil. Entretanto a maioria dos dados são apresentados agrupando dados por UF e não por Municípios. (Fonte http://det.mte.gov.br/o-programa)</t>
+  </si>
+  <si>
+    <t>Sociocultural
+Educação: Acesso e Permanência Escolar; Desempenho Escolar; Infraestrutura Escolar; Qualidade de Ensino
+Saúde: Cobertura da Atenção Básica; Fatores de Risco e Proteção; Morbidade; Mortalidade
+Cultura: Estrutura de Gestão para Promoção da Cultura; Infraestrutura Cultural; Iniciativas Culturais da Sociedade; Recursos na Cultura
+Habitação: Estrutura de Gestão para Políticas Habitacionais; Qualidade Habitaciona
+Econômica
+Econômica: Agregação de Valor Econômico; Dinamismo Econômico; Nível de Renda
+Ambiental
+Meio Ambiente: Cobertura de Saneamento Básico; Gestão Ambiental;Preservação Ambiental
+Político Institucional
+Finanças Públicas: Capacidade de Receita; Estímulo ao Investimento; Saúde Financeira
+Gestão Pública: Articulação com o Exterior; Capacidade de Planejamento; Gestão Financeira; Governo Eletrônico; Qualidade do Quadro Funcional
+Participação Social: Participação Eleitoral; Representatividade de Gêneros</t>
+  </si>
+  <si>
+    <t>Dados por municipio como:
+Frota de veículos automotores
+Serviço Militar Obrigatório
+Benefício de Prestação Continuada- BPC
+Estações de Tratamento de Esgoto (2019)
+Auxílio Emergencial (AE)
+Anatel - Indicadores de Domicílios com Banda Larga
+Bolsa Família - MI Social
+Programa Banda Larga nas Escolas - PBLE</t>
+  </si>
+  <si>
+    <t>http://bicicletanosplanos.org/</t>
+  </si>
+  <si>
+    <t>https://egestorab.saude.gov.br/</t>
+  </si>
+  <si>
+    <t>e-Gestor Informação e Gestão da Atenção Basica - https://egestorab.saude.gov.br/
+Portal APS - Secretaria de Atenção Primária a Saúde - http://aps.saude.gov.br/
+Open DataSUS - https://opendatasus.saude.gov.br/
+Ministerio da Saude-Dados.org - https://dados.gov.br/organization/ministerio-da-saude-ms?q=municipio&amp;sort=score+desc%2C+metadata_modified+desc&amp;page=2
+Portal Sage - Sage https://sage.saude.gov.br/paineis/planoCrack/lista_caps.php?output=html
+FNS - Fundo Nacional de Saúde - https://portalfns.saude.gov.br/
+CNES - Cadastro Nacional de Estabelecimentos de Saúde - http://tabnet.datasus.gov.br/cgi/deftohtm.exe?cnes/cnv/atencRJ.def
+SISAB Sistema de Informação em Saúde para a Atenção Básica- https://sisab.saude.gov.br/
+TabNet DataSUS - http://tabnet.datasus.gov.br/
+Fiocruz Atenção Basica - https://pensesus.fiocruz.br/atencao-basica
+DataSUS - https://datasus.saude.gov.br/
+Painéis de Indicadores da Atenção Primária - https://sisaps.saude.gov.br/painelsaps/
+Sistema de Informações sobre Nascidos Vivos - SINASC - http://tabnet.datasus.gov.br/cgi/tabcgi.exe?sinasc/cnv/nvrj.def</t>
+  </si>
+  <si>
+    <t>https://www.cidadessustentaveis.org.br/</t>
+  </si>
+  <si>
+    <t>ISPDados -Dados Abertos do Instituto de Segurança Pública</t>
+  </si>
+  <si>
+    <t>http://www.ispvisualizacao.rj.gov.br/Letalidade.html</t>
+  </si>
+  <si>
+    <t>ISPDados.png</t>
+  </si>
+  <si>
+    <t>o ISP conta com grande conhecimento acumulado no desenvolvimento de metodologias de análise de dados relativos à Segurança Pública. Sua missão é produzir informações e disseminar pesquisas e análises com vistas a influenciar e subsidiar a implementação de políticas públicas de segurança e assegurar a participação social na construção dessas políticas.</t>
+  </si>
+  <si>
+    <t>Diversos Portais Ambientais</t>
+  </si>
+  <si>
+    <t>Unidades de Conservação no Brasil
+https://uc.socioambiental.org/mapa
+INEPAC- Patrimônio Cultural
+http://www.inepac.rj.gov.br</t>
+  </si>
+  <si>
+    <t>Reune dados provenientes das principais fontes oficiais sobre saneamento: IBGE, SNIS e ANA. No total, utilizamos 160 informações e indicadores desagregados por município.
+A plataforma permite visualizar a situação de cada município considerando a implementação de política municipal de saneamento; quem faz a prestação de serviços de saneamento no município; como está o atendimento da população do município (água, esgotos, drenagem e resíduos sólidos) e a comparação dos principais índices com a situação estadual e nacional.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">História e Fotos, Gentilico, Prefeito
+População: População estimada [2020]; População por Religião 
+Trabalho e Rendimento: Salário médio mensal dos trabalhadores formais [2018]; Pessoal ocupado [2018]; %População ocupada [2018]; % da população com rendimento per capita de até 1/2 salário mínimo [2010]
+Arborização de vias públicas [2010]; Urbanização de vias públicas [2010] ;Bioma [2019]; 
 Territorio: Área da unidade territorial [2020]; Hierarquia urbana [2018] ; Região de Influência [2018] ; Região intermediária [2020]; Região imediata [2020]; Mesorregião [2020]; Microrregião [2020]
 Dados sobre Aglomerados, Quilombolas, Acessibilidade, Areas Urbanas e Rurais
-https://www.ibge.gov.br/geociencias/organizacao-do-territorio/tipologias-do-territorio.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demografia e Habitação - Fundação Instituto Brasileiro de Geografia e Estatística - IBGE, Censo Demográfico, Estatísticas do Registro Civil.  (metodologia)
-Envelhecimento (%)    - Fundação CEPERJ/CEEP
-Natalidade e Mortalidade - Ministério da Saúde, DATASUS, Sistema de Informações sobre Nascidos Vivos - SINASC    (2017 )
+https://www.ibge.gov.br/geociencias/organizacao-do-territorio/tipologias-do-territorio.html
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demografia e Habitação - Fundação Instituto Brasileiro de Geografia e Estatística - IBGE, Censo Demográfico, Estatísticas do Registro Civil. (metodologia)
+Envelhecimento (%) - Fundação CEPERJ/CEEP
+Natalidade e Mortalidade - Ministério da Saúde, DATASUS, Sistema de Informações sobre Nascidos Vivos - SINASC (2017 )
 Distância para a capital (Km)-Fundação Departamento de Estradas de Rodagens - DER-RJ
-• IDHM, GINI, Vulnerabilidade - Atlas do Desenvolvimento Humano no Brasil (2013) 
-• Bolsa Família -  Ministério da Cidadania, DATASOCIAL
-• Educação - Ministério da Educação - MEC, INEP - Instituto Nacional de Estudos e Pesquisas Educacionais Anísio Teixeira
-• Eleitores- Tribunal Regional Eleitoral do Rio de Janeiro - TRE/RJ
-• Trabalho e Previdência - Ministério do Trabalho e Emprego - MTE, Relação Anual de Informações Sociais - RAIS
-• Remuneração Média, Admissões-  MTE, Cadastro Geral de Empregados e Desempregados - CAGED
-• Contabilidade: PIB e Valor Adicionado: IBGE e Fundação CEPERJ/CEEP
-• Agências Bancárias   -  Banco Central do Brasil - BACEN
-• ICMS Ecológico, Áreas Protegidas-  Secretaria de Estado de Fazenda - SEFAZ    (2019) e Secretaria do Estado do Ambiente e Sustentabilidade - SEAS
-• Abastecimento de Agua e Rede de Esgoto -Sistema Nacional de Informações sobre Saneamento - SNIS
-• Saneamento Basico - Secretaria Estadual do Ambiente, INEA e CEPERJ  (2018) 
-• Gestão de Resíduos Sólidos- Secretaria de Estado do Ambiente - SEA e Instituto Estadual de Ambiente - INEA
-• Frota de veículos  -  DETRAN/RJ - Consultoria de Informática - Renavam
-• Finanças Públicas - Tribunal de Contas do Estado do Rio de Janeiro - TCE e Secretaria do Tesouro Nacional - STN
+IDHM, GINI, Vulnerabilidade - Atlas do Desenvolvimento Humano no Brasil (2013) 
+Bolsa Família - Ministério da Cidadania, DATASOCIAL
+Educação - Ministério da Educação - MEC, INEP - Instituto Nacional de Estudos e Pesquisas Educacionais Anísio Teixeira
+Eleitores- Tribunal Regional Eleitoral do Rio de Janeiro - TRE/RJ
+Trabalho e Previdência - Ministério do Trabalho e Emprego - MTE, Relação Anual de Informações Sociais - RAIS
+Remuneração Média, Admissões- MTE, Cadastro Geral de Empregados e Desempregados - CAGED
+Contabilidade: PIB e Valor Adicionado: IBGE e Fundação CEPERJ/CEEP
+Agências Bancárias - Banco Central do Brasil - BACEN
+ICMS Ecológico, Áreas Protegidas- Secretaria de Estado de Fazenda - SEFAZ (2019) e Secretaria do Estado do Ambiente e Sustentabilidade - SEAS
+Abastecimento de Agua e Rede de Esgoto -Sistema Nacional de Informações sobre Saneamento - SNIS
+Saneamento Basico - Secretaria Estadual do Ambiente, INEA e CEPERJ (2018) 
+Gestão de Resíduos Sólidos- Secretaria de Estado do Ambiente - SEA e Instituto Estadual de Ambiente - INEA
+Frota de veículos - DETRAN/RJ - Consultoria de Informática - Renavam
+Finanças Públicas - Tribunal de Contas do Estado do Rio de Janeiro - TCE e Secretaria do Tesouro Nacional - STN
 </t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>ibge1.png,ibge2.png,IBGE_pesq.png</t>
-  </si>
-  <si>
-    <t>ComercioExterior2.png,ComercioExterior3.png</t>
-  </si>
-  <si>
-    <t>Saude1.png,Saude2.png</t>
-  </si>
-  <si>
-    <t>diversos.jpg</t>
-  </si>
-  <si>
-    <t>IVS_juventude.png</t>
+    <t xml:space="preserve">http://bicicletanosplanos.org/ 
+https://www.mobilize.org.br/ 
+https://observatoriodabicicleta.org.br/sobre/ 
+Plano de Mobilidade Urbana: Armação dos Buzios e Paty dos Alferes
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -871,6 +815,29 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -927,7 +894,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -955,7 +922,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1171,10 +1152,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X995"/>
+  <dimension ref="A1:X994"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1186,7 +1167,7 @@
     <col min="5" max="26" width="7.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1200,18 +1181,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="11"/>
@@ -1234,18 +1215,18 @@
       <c r="W2" s="11"/>
       <c r="X2" s="11"/>
     </row>
-    <row r="3" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
@@ -1268,18 +1249,18 @@
       <c r="W3" s="11"/>
       <c r="X3" s="11"/>
     </row>
-    <row r="4" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>14</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>15</v>
       </c>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
@@ -1302,18 +1283,18 @@
       <c r="W4" s="11"/>
       <c r="X4" s="11"/>
     </row>
-    <row r="5" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="D5" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
@@ -1336,18 +1317,18 @@
       <c r="W5" s="11"/>
       <c r="X5" s="11"/>
     </row>
-    <row r="6" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="D6" s="9" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="11"/>
@@ -1370,18 +1351,18 @@
       <c r="W6" s="11"/>
       <c r="X6" s="11"/>
     </row>
-    <row r="7" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
@@ -1404,18 +1385,18 @@
       <c r="W7" s="11"/>
       <c r="X7" s="11"/>
     </row>
-    <row r="8" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>31</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="11"/>
@@ -1438,18 +1419,18 @@
       <c r="W8" s="11"/>
       <c r="X8" s="11"/>
     </row>
-    <row r="9" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
@@ -1472,18 +1453,18 @@
       <c r="W9" s="11"/>
       <c r="X9" s="11"/>
     </row>
-    <row r="10" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>36</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>39</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="11"/>
@@ -1506,18 +1487,18 @@
       <c r="W10" s="11"/>
       <c r="X10" s="11"/>
     </row>
-    <row r="11" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>43</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="11"/>
@@ -1540,18 +1521,18 @@
       <c r="W11" s="11"/>
       <c r="X11" s="11"/>
     </row>
-    <row r="12" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>44</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>47</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="11"/>
@@ -1574,18 +1555,18 @@
       <c r="W12" s="11"/>
       <c r="X12" s="11"/>
     </row>
-    <row r="13" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>49</v>
+        <v>15</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="11"/>
@@ -1608,18 +1589,18 @@
       <c r="W13" s="11"/>
       <c r="X13" s="11"/>
     </row>
-    <row r="14" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>17</v>
+        <v>149</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="11"/>
@@ -1642,18 +1623,18 @@
       <c r="W14" s="11"/>
       <c r="X14" s="11"/>
     </row>
-    <row r="15" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>57</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="11"/>
@@ -1676,18 +1657,18 @@
       <c r="W15" s="11"/>
       <c r="X15" s="11"/>
     </row>
-    <row r="16" spans="1:24" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" ht="22.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>60</v>
+        <v>50</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>182</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="11"/>
@@ -1712,429 +1693,437 @@
     </row>
     <row r="17" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>170</v>
+        <v>54</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>65</v>
+        <v>151</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>172</v>
+        <v>56</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>69</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>70</v>
+        <v>154</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>73</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>74</v>
+        <v>157</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>81</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>85</v>
+        <v>161</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>89</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>93</v>
+        <v>163</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>173</v>
+        <v>129</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>103</v>
+        <v>75</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>140</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>105</v>
+        <v>77</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>110</v>
+        <v>82</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>112</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="15" t="s">
-        <v>122</v>
+        <v>97</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>98</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>133</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>142</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>144</v>
+        <v>115</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>146</v>
+      <c r="C40" s="20" t="s">
+        <v>141</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>151</v>
+        <v>174</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>175</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>155</v>
+        <v>124</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>125</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>171</v>
+        <v>126</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>158</v>
+        <v>110</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>111</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>159</v>
+        <v>112</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>162</v>
+        <v>131</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>132</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>168</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
+      <c r="A47" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
@@ -7818,15 +7807,9 @@
       <c r="C994" s="6"/>
       <c r="D994" s="6"/>
     </row>
-    <row r="995" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A995" s="1"/>
-      <c r="B995" s="6"/>
-      <c r="C995" s="6"/>
-      <c r="D995" s="6"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
